--- a/Records/Empty_record.xlsx
+++ b/Records/Empty_record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luisg\Documents\Python Projects\DIGITALIZACION_DE_CALIDAD\Records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACD79CE-B209-455B-BD7F-59C99B465A4A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C65CFB-92B1-4D52-B0C4-C41595AFDEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5085" yWindow="4020" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>problem_type</t>
+  </si>
+  <si>
+    <t>quadrant</t>
   </si>
 </sst>
 </file>
@@ -354,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,9 +368,10 @@
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -379,6 +383,9 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
